--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -91,6 +91,74 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25600" yWindow="2620" windowWidth="25600" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -85,6 +85,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -541,7 +544,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.83203125" customWidth="1" style="2" min="2" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -554,6 +558,9 @@
         <is>
           <t>Colorado</t>
         </is>
+      </c>
+      <c r="C1" s="10" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">

--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\template_state_3.3\elec\BTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\BTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA25827-5764-45A3-9CD4-C743F62A1F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A6B5749-BE27-427D-97DA-7998229CC8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1800" windowWidth="14400" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="IIJA" sheetId="3" r:id="rId3"/>
-    <sheet name="BTC" sheetId="4" r:id="rId4"/>
+    <sheet name="IIJA" sheetId="4" r:id="rId3"/>
+    <sheet name="BTC" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,135 +27,155 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>BTC BAU Transmission Capacity</t>
   </si>
   <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory</t>
+  </si>
+  <si>
+    <t>Renewable Energy Futures Study: Volume 1</t>
+  </si>
+  <si>
+    <t>http://www.nrel.gov/docs/fy12osti/52409-1.pdf</t>
+  </si>
+  <si>
+    <t>Page 3-14, Figure 3-8</t>
+  </si>
+  <si>
+    <t>BAU transmission capacity in 2010 is given in the figure caption as</t>
+  </si>
+  <si>
+    <t>150-200 million MW*miles.  The graph shows the additional quantity</t>
+  </si>
+  <si>
+    <t>of transmission being built in the "baseline" scenario, which extends</t>
+  </si>
+  <si>
+    <t>to 2050 in the RE Futures Report.  We assume the growth is linear</t>
+  </si>
+  <si>
+    <t>2010 Transmission (high estimate):</t>
+  </si>
+  <si>
+    <t>2010 Transmission (low estimate):</t>
+  </si>
+  <si>
+    <t>2010 Transmission:</t>
+  </si>
+  <si>
+    <t>Pixels per 50 million MW*miles:</t>
+  </si>
+  <si>
+    <t>Pixel height of new transmission:</t>
+  </si>
+  <si>
+    <t>BAU New Transmission</t>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t>MW*miles</t>
+  </si>
+  <si>
+    <t>New transmission quantity in 2050</t>
+  </si>
+  <si>
+    <t>we must estimate by measuring pixels on the graph.</t>
+  </si>
+  <si>
+    <t>Unfortunately, data are only available as a graph (not in numbers), so</t>
+  </si>
+  <si>
+    <t>and interpolate.</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>Transmission Projects Ready to Go: Plugging Into America's Untapped Renewable Resources</t>
+  </si>
+  <si>
+    <t>Americans for a Clean Energy Grid and Grid Strategies</t>
+  </si>
+  <si>
+    <t>Page 4</t>
+  </si>
+  <si>
+    <t>Number of MW-miles proposed</t>
+  </si>
+  <si>
+    <t>Proposed investment</t>
+  </si>
+  <si>
+    <t>IIJA Funding</t>
+  </si>
+  <si>
+    <t>Number of MW-miles installed through 2030*</t>
+  </si>
+  <si>
+    <t>*assume funding is available through 2026, but due to the long nature of transmission projects,</t>
+  </si>
+  <si>
+    <t>some lines may come online after 2026</t>
+  </si>
+  <si>
+    <t>additional capacity (MW-miles)</t>
+  </si>
+  <si>
+    <t>Transmission Growth</t>
+  </si>
+  <si>
+    <t>Indexed to 2020</t>
+  </si>
+  <si>
+    <t>2021 Transmission Value</t>
+  </si>
+  <si>
+    <t>https://cleanenergygrid.org/wp-content/uploads/2019/04/Transmission-Projects-Ready-to-Go-Final.pdf</t>
+  </si>
+  <si>
+    <t>Current Value and Infrastructure Investment and Jobs Act Effects</t>
+  </si>
+  <si>
+    <t>BAU Transmission Capacity (MW-miles)</t>
+  </si>
+  <si>
     <t>Colorado</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>Current Value and Infrastructure Investment and Jobs Act Effects</t>
-  </si>
-  <si>
-    <t>Americans for a Clean Energy Grid and Grid Strategies</t>
-  </si>
-  <si>
-    <t>Transmission Projects Ready to Go: Plugging Into America's Untapped Renewable Resources</t>
-  </si>
-  <si>
-    <t>https://cleanenergygrid.org/wp-content/uploads/2019/04/Transmission-Projects-Ready-to-Go-Final.pdf</t>
-  </si>
-  <si>
-    <t>Page 4</t>
-  </si>
-  <si>
-    <t>Scaling</t>
-  </si>
-  <si>
-    <t>National Renewable Energy Laboratory</t>
-  </si>
-  <si>
-    <t>Renewable Energy Futures Study: Volume 1</t>
-  </si>
-  <si>
-    <t>http://www.nrel.gov/docs/fy12osti/52409-1.pdf</t>
-  </si>
-  <si>
-    <t>Page 3-14, Figure 3-8</t>
-  </si>
-  <si>
-    <t>Transmission Growth</t>
-  </si>
-  <si>
-    <t>BAU transmission capacity in 2010 is given in the figure caption as</t>
-  </si>
-  <si>
-    <t>150-200 million MW*miles.  The graph shows the additional quantity</t>
-  </si>
-  <si>
-    <t>of transmission being built in the "baseline" scenario, which extends</t>
-  </si>
-  <si>
-    <t>to 2050 in the RE Futures Report.  We assume the growth is linear</t>
-  </si>
-  <si>
-    <t>and interpolate.</t>
-  </si>
-  <si>
-    <t>Unfortunately, data are only available as a graph (not in numbers), so</t>
-  </si>
-  <si>
-    <t>we must estimate by measuring pixels on the graph.</t>
-  </si>
-  <si>
-    <t>2010 Transmission (low estimate):</t>
-  </si>
-  <si>
-    <t>MW*miles</t>
-  </si>
-  <si>
-    <t>2010 Transmission (high estimate):</t>
-  </si>
-  <si>
-    <t>2010 Transmission:</t>
-  </si>
-  <si>
-    <t>BAU New Transmission</t>
-  </si>
-  <si>
-    <t>Pixels per 50 million MW*miles:</t>
-  </si>
-  <si>
-    <t>pixels</t>
-  </si>
-  <si>
-    <t>Pixel height of new transmission:</t>
-  </si>
-  <si>
-    <t>New transmission quantity in 2050</t>
-  </si>
-  <si>
-    <t>Indexed to 2020</t>
-  </si>
-  <si>
-    <t>2021 Transmission Value</t>
-  </si>
-  <si>
-    <t>Number of MW-miles proposed</t>
-  </si>
-  <si>
-    <t>Proposed investment</t>
-  </si>
-  <si>
-    <t>IIJA Funding</t>
-  </si>
-  <si>
-    <t>Number of MW-miles installed through 2030*</t>
-  </si>
-  <si>
-    <t>*assume funding is available through 2026, but due to the long nature of transmission projects,</t>
-  </si>
-  <si>
-    <t>some lines may come online after 2026</t>
-  </si>
-  <si>
-    <t>additional capacity (MW-miles)</t>
-  </si>
-  <si>
-    <t>BAU Transmission Capacity (MW-miles)</t>
   </si>
 </sst>
 </file>
@@ -222,10 +242,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -244,6 +264,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -292,7 +313,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -305,9 +332,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -316,9 +340,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -356,9 +380,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,26 +415,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,26 +450,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -636,100 +626,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10">
+        <v>45237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
       <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B5" s="6">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="44.25" x14ac:dyDescent="0.75">
       <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B12" s="6">
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B16" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{FF197175-E7A8-4C69-9B18-B36AE5DAEF78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -741,128 +734,128 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <f>150*10^6</f>
         <v>150000000</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <f>200*10^6</f>
         <v>200000000</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B11:B12)</f>
         <v>175000000</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <f>B17/B16*50*10^6</f>
         <v>5319148.9361702129</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -871,7 +864,7 @@
         <v>175000000</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>2050</v>
       </c>
@@ -880,7 +873,7 @@
         <v>180319148.93617022</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1005,187 +998,187 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.75">
+      <c r="A25" s="2" cm="1">
         <f t="array" ref="A25">TREND($B$21:$B$22,$A$21:$A$22,A24)</f>
         <v>175000000</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" cm="1">
         <f t="array" ref="B25">TREND($B$21:$B$22,$A$21:$A$22,B24)</f>
         <v>175132978.72340426</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="2" cm="1">
         <f t="array" ref="C25">TREND($B$21:$B$22,$A$21:$A$22,C24)</f>
         <v>175265957.44680852</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="2" cm="1">
         <f t="array" ref="D25">TREND($B$21:$B$22,$A$21:$A$22,D24)</f>
         <v>175398936.17021278</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="2" cm="1">
         <f t="array" ref="E25">TREND($B$21:$B$22,$A$21:$A$22,E24)</f>
         <v>175531914.893617</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="2" cm="1">
         <f t="array" ref="F25">TREND($B$21:$B$22,$A$21:$A$22,F24)</f>
         <v>175664893.61702126</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="2" cm="1">
         <f t="array" ref="G25">TREND($B$21:$B$22,$A$21:$A$22,G24)</f>
         <v>175797872.34042552</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="2" cm="1">
         <f t="array" ref="H25">TREND($B$21:$B$22,$A$21:$A$22,H24)</f>
         <v>175930851.06382978</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="2" cm="1">
         <f t="array" ref="I25">TREND($B$21:$B$22,$A$21:$A$22,I24)</f>
         <v>176063829.78723404</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="2" cm="1">
         <f t="array" ref="J25">TREND($B$21:$B$22,$A$21:$A$22,J24)</f>
         <v>176196808.5106383</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="2" cm="1">
         <f t="array" ref="K25">TREND($B$21:$B$22,$A$21:$A$22,K24)</f>
         <v>176329787.23404253</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="2" cm="1">
         <f t="array" ref="L25">TREND($B$21:$B$22,$A$21:$A$22,L24)</f>
         <v>176462765.95744681</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="2" cm="1">
         <f t="array" ref="M25">TREND($B$21:$B$22,$A$21:$A$22,M24)</f>
         <v>176595744.68085104</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="2" cm="1">
         <f t="array" ref="N25">TREND($B$21:$B$22,$A$21:$A$22,N24)</f>
         <v>176728723.40425533</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="2" cm="1">
         <f t="array" ref="O25">TREND($B$21:$B$22,$A$21:$A$22,O24)</f>
         <v>176861702.12765956</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="2" cm="1">
         <f t="array" ref="P25">TREND($B$21:$B$22,$A$21:$A$22,P24)</f>
         <v>176994680.85106385</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="2" cm="1">
         <f t="array" ref="Q25">TREND($B$21:$B$22,$A$21:$A$22,Q24)</f>
         <v>177127659.57446808</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="2" cm="1">
         <f t="array" ref="R25">TREND($B$21:$B$22,$A$21:$A$22,R24)</f>
         <v>177260638.29787236</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="2" cm="1">
         <f t="array" ref="S25">TREND($B$21:$B$22,$A$21:$A$22,S24)</f>
         <v>177393617.02127659</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="2" cm="1">
         <f t="array" ref="T25">TREND($B$21:$B$22,$A$21:$A$22,T24)</f>
         <v>177526595.74468082</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="2" cm="1">
         <f t="array" ref="U25">TREND($B$21:$B$22,$A$21:$A$22,U24)</f>
         <v>177659574.46808511</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="2" cm="1">
         <f t="array" ref="V25">TREND($B$21:$B$22,$A$21:$A$22,V24)</f>
         <v>177792553.19148934</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W25" s="2" cm="1">
         <f t="array" ref="W25">TREND($B$21:$B$22,$A$21:$A$22,W24)</f>
         <v>177925531.91489363</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X25" s="2" cm="1">
         <f t="array" ref="X25">TREND($B$21:$B$22,$A$21:$A$22,X24)</f>
         <v>178058510.63829786</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="Y25" s="2" cm="1">
         <f t="array" ref="Y25">TREND($B$21:$B$22,$A$21:$A$22,Y24)</f>
         <v>178191489.36170214</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="Z25" s="2" cm="1">
         <f t="array" ref="Z25">TREND($B$21:$B$22,$A$21:$A$22,Z24)</f>
         <v>178324468.08510637</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AA25" s="2" cm="1">
         <f t="array" ref="AA25">TREND($B$21:$B$22,$A$21:$A$22,AA24)</f>
         <v>178457446.80851066</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AB25" s="2" cm="1">
         <f t="array" ref="AB25">TREND($B$21:$B$22,$A$21:$A$22,AB24)</f>
         <v>178590425.53191489</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AC25" s="2" cm="1">
         <f t="array" ref="AC25">TREND($B$21:$B$22,$A$21:$A$22,AC24)</f>
         <v>178723404.25531918</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25" s="2" cm="1">
         <f t="array" ref="AD25">TREND($B$21:$B$22,$A$21:$A$22,AD24)</f>
         <v>178856382.97872341</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AE25" s="2" cm="1">
         <f t="array" ref="AE25">TREND($B$21:$B$22,$A$21:$A$22,AE24)</f>
         <v>178989361.70212764</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AF25" s="2" cm="1">
         <f t="array" ref="AF25">TREND($B$21:$B$22,$A$21:$A$22,AF24)</f>
         <v>179122340.42553192</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AG25" s="2" cm="1">
         <f t="array" ref="AG25">TREND($B$21:$B$22,$A$21:$A$22,AG24)</f>
         <v>179255319.14893615</v>
       </c>
-      <c r="AH25" s="2">
+      <c r="AH25" s="2" cm="1">
         <f t="array" ref="AH25">TREND($B$21:$B$22,$A$21:$A$22,AH24)</f>
         <v>179388297.87234044</v>
       </c>
-      <c r="AI25" s="2">
+      <c r="AI25" s="2" cm="1">
         <f t="array" ref="AI25">TREND($B$21:$B$22,$A$21:$A$22,AI24)</f>
         <v>179521276.59574467</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AJ25" s="2" cm="1">
         <f t="array" ref="AJ25">TREND($B$21:$B$22,$A$21:$A$22,AJ24)</f>
         <v>179654255.31914896</v>
       </c>
-      <c r="AK25" s="2">
+      <c r="AK25" s="2" cm="1">
         <f t="array" ref="AK25">TREND($B$21:$B$22,$A$21:$A$22,AK24)</f>
         <v>179787234.04255319</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL25" s="2" cm="1">
         <f t="array" ref="AL25">TREND($B$21:$B$22,$A$21:$A$22,AL24)</f>
         <v>179920212.76595747</v>
       </c>
-      <c r="AM25" s="2">
+      <c r="AM25" s="2" cm="1">
         <f t="array" ref="AM25">TREND($B$21:$B$22,$A$21:$A$22,AM24)</f>
         <v>180053191.4893617</v>
       </c>
-      <c r="AN25" s="2">
+      <c r="AN25" s="2" cm="1">
         <f t="array" ref="AN25">TREND($B$21:$B$22,$A$21:$A$22,AN24)</f>
         <v>180186170.21276593</v>
       </c>
-      <c r="AO25" s="2">
+      <c r="AO25" s="2" cm="1">
         <f t="array" ref="AO25">TREND($B$21:$B$22,$A$21:$A$22,AO24)</f>
         <v>180319148.93617022</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <f>150*10^6</f>
         <v>150000000</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -1280,17 +1273,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A32" s="2">
         <f>B29</f>
         <v>150000000</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" ref="B32:AE32" si="0">$A$32*L25/$K$25</f>
+        <f>$A$32*L25/$K$25</f>
         <v>150113122.17194575</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C32:AE32" si="0">$A$32*M25/$K$25</f>
         <v>150226244.34389141</v>
       </c>
       <c r="D32" s="2">
@@ -1406,10 +1399,10 @@
         <v>153393665.15837106</v>
       </c>
     </row>
-    <row r="34" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:21" x14ac:dyDescent="0.75">
       <c r="U34" s="2"/>
     </row>
-    <row r="36" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:21" x14ac:dyDescent="0.75">
       <c r="K36" s="9"/>
     </row>
   </sheetData>
@@ -1419,49 +1412,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A8E9EE-75BB-4C67-BE26-F56AE2DF869D}">
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <f>17*10^6</f>
         <v>17000000</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <f>33*10^9</f>
         <v>33000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <f>500000000*5</f>
         <v>2500000000</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2">
         <f>B1/B2*B3</f>
@@ -1469,17 +1462,17 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.75">
       <c r="B9">
         <v>2020</v>
       </c>
@@ -1574,9 +1567,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1589,11 +1582,11 @@
         <v>143097.6430976431</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:L10" si="0">$B$4/9+D10</f>
+        <f>$B$4/9+D10</f>
         <v>286195.2861952862</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F10:L10" si="0">$B$4/9+E10</f>
         <v>429292.9292929293</v>
       </c>
       <c r="G10" s="2">
@@ -1621,11 +1614,11 @@
         <v>1287878.7878787876</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" ref="M10:AF10" si="1">$L$10</f>
+        <f>$L$10</f>
         <v>1287878.7878787876</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N10:AF10" si="1">$L$10</f>
         <v>1287878.7878787876</v>
       </c>
       <c r="O10" s="2">
@@ -1701,7 +1694,7 @@
         <v>1287878.7878787876</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.75">
       <c r="K13" s="9"/>
     </row>
   </sheetData>
@@ -1710,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1720,13 +1713,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.75">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -1821,9 +1814,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3">
         <f>Data!A32+IIJA!B10</f>
@@ -1950,7 +1943,7 @@
         <v>154681543.94624984</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.75">
       <c r="L4" s="3"/>
     </row>
   </sheetData>
